--- a/documents/Gantt Chart - Project.xlsx
+++ b/documents/Gantt Chart - Project.xlsx
@@ -5,24 +5,23 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\94031\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Email filter\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D6737D-8283-4B74-B992-E5A2861211D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315F02B3-4682-4587-8B30-B222DD1AF49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4920" yWindow="1650" windowWidth="21600" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="13" r:id="rId2"/>
-    <sheet name="GanttChartPro" sheetId="12" r:id="rId3"/>
-    <sheet name="Help" sheetId="6" r:id="rId4"/>
-    <sheet name="TermsOfUse" sheetId="11" r:id="rId5"/>
+    <sheet name="GanttChartPro" sheetId="12" r:id="rId2"/>
+    <sheet name="Help" sheetId="6" r:id="rId3"/>
+    <sheet name="TermsOfUse" sheetId="11" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">GanttChartPro!$A$1:$C$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">GanttChartPro!$A$1:$C$47</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
     <definedName name="valuevx">42.314159</definedName>
     <definedName name="vertex42_copyright" hidden="1">"© 2006-2018 Vertex42 LLC"</definedName>
@@ -444,7 +443,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="181">
   <si>
     <r>
       <rPr>
@@ -1691,70 +1690,6 @@
   <si>
     <t>á</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>aïve bayes</t>
-    </r>
-    <phoneticPr fontId="71" type="noConversion"/>
-  </si>
-  <si>
-    <t>Random forest</t>
-    <phoneticPr fontId="71" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>VM</t>
-    </r>
-    <phoneticPr fontId="71" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hybrid model</t>
-    <phoneticPr fontId="71" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>pam</t>
-    </r>
-    <phoneticPr fontId="71" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>am</t>
-    </r>
-    <phoneticPr fontId="71" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3051,13 +2986,6 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="45" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3067,10 +2995,6 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="45" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="179" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3079,6 +3003,17 @@
     </xf>
     <xf numFmtId="179" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="45" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="45" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -7910,9 +7845,9 @@
   </sheetPr>
   <dimension ref="A1:HL56"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S19" sqref="S19"/>
+      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7943,29 +7878,29 @@
       <c r="E1" s="30"/>
       <c r="F1" s="30"/>
       <c r="I1" s="97"/>
-      <c r="K1" s="128" t="s">
+      <c r="K1" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
-      <c r="P1" s="128"/>
-      <c r="Q1" s="128"/>
-      <c r="R1" s="128"/>
-      <c r="S1" s="128"/>
-      <c r="T1" s="128"/>
-      <c r="U1" s="128"/>
-      <c r="V1" s="128"/>
-      <c r="W1" s="128"/>
-      <c r="X1" s="128"/>
-      <c r="Y1" s="128"/>
-      <c r="Z1" s="128"/>
-      <c r="AA1" s="128"/>
-      <c r="AB1" s="128"/>
-      <c r="AC1" s="128"/>
-      <c r="AD1" s="128"/>
-      <c r="AE1" s="128"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="134"/>
+      <c r="S1" s="134"/>
+      <c r="T1" s="134"/>
+      <c r="U1" s="134"/>
+      <c r="V1" s="134"/>
+      <c r="W1" s="134"/>
+      <c r="X1" s="134"/>
+      <c r="Y1" s="134"/>
+      <c r="Z1" s="134"/>
+      <c r="AA1" s="134"/>
+      <c r="AB1" s="134"/>
+      <c r="AC1" s="134"/>
+      <c r="AD1" s="134"/>
+      <c r="AE1" s="134"/>
     </row>
     <row r="2" spans="1:213" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
@@ -8005,11 +7940,11 @@
       <c r="B4" s="82" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="133">
+      <c r="C4" s="136">
         <v>44956</v>
       </c>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
       <c r="F4" s="81"/>
       <c r="G4" s="82" t="s">
         <v>1</v>
@@ -8019,602 +7954,602 @@
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="31"/>
-      <c r="K4" s="130" t="str">
+      <c r="K4" s="128" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="131"/>
-      <c r="M4" s="131"/>
-      <c r="N4" s="131"/>
-      <c r="O4" s="131"/>
-      <c r="P4" s="131"/>
-      <c r="Q4" s="132"/>
-      <c r="R4" s="130" t="str">
+      <c r="L4" s="129"/>
+      <c r="M4" s="129"/>
+      <c r="N4" s="129"/>
+      <c r="O4" s="129"/>
+      <c r="P4" s="129"/>
+      <c r="Q4" s="130"/>
+      <c r="R4" s="128" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="131"/>
-      <c r="T4" s="131"/>
-      <c r="U4" s="131"/>
-      <c r="V4" s="131"/>
-      <c r="W4" s="131"/>
-      <c r="X4" s="132"/>
-      <c r="Y4" s="130" t="str">
+      <c r="S4" s="129"/>
+      <c r="T4" s="129"/>
+      <c r="U4" s="129"/>
+      <c r="V4" s="129"/>
+      <c r="W4" s="129"/>
+      <c r="X4" s="130"/>
+      <c r="Y4" s="128" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="131"/>
-      <c r="AA4" s="131"/>
-      <c r="AB4" s="131"/>
-      <c r="AC4" s="131"/>
-      <c r="AD4" s="131"/>
-      <c r="AE4" s="132"/>
-      <c r="AF4" s="130" t="str">
+      <c r="Z4" s="129"/>
+      <c r="AA4" s="129"/>
+      <c r="AB4" s="129"/>
+      <c r="AC4" s="129"/>
+      <c r="AD4" s="129"/>
+      <c r="AE4" s="130"/>
+      <c r="AF4" s="128" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="131"/>
-      <c r="AH4" s="131"/>
-      <c r="AI4" s="131"/>
-      <c r="AJ4" s="131"/>
-      <c r="AK4" s="131"/>
-      <c r="AL4" s="132"/>
-      <c r="AM4" s="130" t="str">
+      <c r="AG4" s="129"/>
+      <c r="AH4" s="129"/>
+      <c r="AI4" s="129"/>
+      <c r="AJ4" s="129"/>
+      <c r="AK4" s="129"/>
+      <c r="AL4" s="130"/>
+      <c r="AM4" s="128" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="131"/>
-      <c r="AO4" s="131"/>
-      <c r="AP4" s="131"/>
-      <c r="AQ4" s="131"/>
-      <c r="AR4" s="131"/>
-      <c r="AS4" s="132"/>
-      <c r="AT4" s="130" t="str">
+      <c r="AN4" s="129"/>
+      <c r="AO4" s="129"/>
+      <c r="AP4" s="129"/>
+      <c r="AQ4" s="129"/>
+      <c r="AR4" s="129"/>
+      <c r="AS4" s="130"/>
+      <c r="AT4" s="128" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="131"/>
-      <c r="AV4" s="131"/>
-      <c r="AW4" s="131"/>
-      <c r="AX4" s="131"/>
-      <c r="AY4" s="131"/>
-      <c r="AZ4" s="132"/>
-      <c r="BA4" s="130" t="str">
+      <c r="AU4" s="129"/>
+      <c r="AV4" s="129"/>
+      <c r="AW4" s="129"/>
+      <c r="AX4" s="129"/>
+      <c r="AY4" s="129"/>
+      <c r="AZ4" s="130"/>
+      <c r="BA4" s="128" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="131"/>
-      <c r="BC4" s="131"/>
-      <c r="BD4" s="131"/>
-      <c r="BE4" s="131"/>
-      <c r="BF4" s="131"/>
-      <c r="BG4" s="132"/>
-      <c r="BH4" s="130" t="str">
+      <c r="BB4" s="129"/>
+      <c r="BC4" s="129"/>
+      <c r="BD4" s="129"/>
+      <c r="BE4" s="129"/>
+      <c r="BF4" s="129"/>
+      <c r="BG4" s="130"/>
+      <c r="BH4" s="128" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="131"/>
-      <c r="BJ4" s="131"/>
-      <c r="BK4" s="131"/>
-      <c r="BL4" s="131"/>
-      <c r="BM4" s="131"/>
-      <c r="BN4" s="132"/>
-      <c r="BO4" s="130" t="str">
+      <c r="BI4" s="129"/>
+      <c r="BJ4" s="129"/>
+      <c r="BK4" s="129"/>
+      <c r="BL4" s="129"/>
+      <c r="BM4" s="129"/>
+      <c r="BN4" s="130"/>
+      <c r="BO4" s="128" t="str">
         <f>"Week "&amp;(BO6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
-      <c r="BP4" s="131"/>
-      <c r="BQ4" s="131"/>
-      <c r="BR4" s="131"/>
-      <c r="BS4" s="131"/>
-      <c r="BT4" s="131"/>
-      <c r="BU4" s="132"/>
-      <c r="BV4" s="130" t="str">
+      <c r="BP4" s="129"/>
+      <c r="BQ4" s="129"/>
+      <c r="BR4" s="129"/>
+      <c r="BS4" s="129"/>
+      <c r="BT4" s="129"/>
+      <c r="BU4" s="130"/>
+      <c r="BV4" s="128" t="str">
         <f>"Week "&amp;(BV6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 10</v>
       </c>
-      <c r="BW4" s="131"/>
-      <c r="BX4" s="131"/>
-      <c r="BY4" s="131"/>
-      <c r="BZ4" s="131"/>
-      <c r="CA4" s="131"/>
-      <c r="CB4" s="132"/>
-      <c r="CC4" s="130" t="str">
+      <c r="BW4" s="129"/>
+      <c r="BX4" s="129"/>
+      <c r="BY4" s="129"/>
+      <c r="BZ4" s="129"/>
+      <c r="CA4" s="129"/>
+      <c r="CB4" s="130"/>
+      <c r="CC4" s="128" t="str">
         <f>"Week "&amp;(CC6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 11</v>
       </c>
-      <c r="CD4" s="131"/>
-      <c r="CE4" s="131"/>
-      <c r="CF4" s="131"/>
-      <c r="CG4" s="131"/>
-      <c r="CH4" s="131"/>
-      <c r="CI4" s="132"/>
-      <c r="CJ4" s="130" t="str">
+      <c r="CD4" s="129"/>
+      <c r="CE4" s="129"/>
+      <c r="CF4" s="129"/>
+      <c r="CG4" s="129"/>
+      <c r="CH4" s="129"/>
+      <c r="CI4" s="130"/>
+      <c r="CJ4" s="128" t="str">
         <f>"Week "&amp;(CJ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 12</v>
       </c>
-      <c r="CK4" s="131"/>
-      <c r="CL4" s="131"/>
-      <c r="CM4" s="131"/>
-      <c r="CN4" s="131"/>
-      <c r="CO4" s="131"/>
-      <c r="CP4" s="132"/>
-      <c r="CQ4" s="130" t="str">
+      <c r="CK4" s="129"/>
+      <c r="CL4" s="129"/>
+      <c r="CM4" s="129"/>
+      <c r="CN4" s="129"/>
+      <c r="CO4" s="129"/>
+      <c r="CP4" s="130"/>
+      <c r="CQ4" s="128" t="str">
         <f>"Week "&amp;(CQ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 13</v>
       </c>
-      <c r="CR4" s="131"/>
-      <c r="CS4" s="131"/>
-      <c r="CT4" s="131"/>
-      <c r="CU4" s="131"/>
-      <c r="CV4" s="131"/>
-      <c r="CW4" s="132"/>
-      <c r="CX4" s="130" t="str">
+      <c r="CR4" s="129"/>
+      <c r="CS4" s="129"/>
+      <c r="CT4" s="129"/>
+      <c r="CU4" s="129"/>
+      <c r="CV4" s="129"/>
+      <c r="CW4" s="130"/>
+      <c r="CX4" s="128" t="str">
         <f>"Week "&amp;(CX6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 14</v>
       </c>
-      <c r="CY4" s="131"/>
-      <c r="CZ4" s="131"/>
-      <c r="DA4" s="131"/>
-      <c r="DB4" s="131"/>
-      <c r="DC4" s="131"/>
-      <c r="DD4" s="132"/>
-      <c r="DE4" s="130" t="str">
+      <c r="CY4" s="129"/>
+      <c r="CZ4" s="129"/>
+      <c r="DA4" s="129"/>
+      <c r="DB4" s="129"/>
+      <c r="DC4" s="129"/>
+      <c r="DD4" s="130"/>
+      <c r="DE4" s="128" t="str">
         <f>"Week "&amp;(DE6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 15</v>
       </c>
-      <c r="DF4" s="131"/>
-      <c r="DG4" s="131"/>
-      <c r="DH4" s="131"/>
-      <c r="DI4" s="131"/>
-      <c r="DJ4" s="131"/>
-      <c r="DK4" s="132"/>
-      <c r="DL4" s="130" t="str">
+      <c r="DF4" s="129"/>
+      <c r="DG4" s="129"/>
+      <c r="DH4" s="129"/>
+      <c r="DI4" s="129"/>
+      <c r="DJ4" s="129"/>
+      <c r="DK4" s="130"/>
+      <c r="DL4" s="128" t="str">
         <f>"Week "&amp;(DL6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 16</v>
       </c>
-      <c r="DM4" s="131"/>
-      <c r="DN4" s="131"/>
-      <c r="DO4" s="131"/>
-      <c r="DP4" s="131"/>
-      <c r="DQ4" s="131"/>
-      <c r="DR4" s="132"/>
-      <c r="DS4" s="130" t="str">
+      <c r="DM4" s="129"/>
+      <c r="DN4" s="129"/>
+      <c r="DO4" s="129"/>
+      <c r="DP4" s="129"/>
+      <c r="DQ4" s="129"/>
+      <c r="DR4" s="130"/>
+      <c r="DS4" s="128" t="str">
         <f>"Week "&amp;(DS6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 17</v>
       </c>
-      <c r="DT4" s="131"/>
-      <c r="DU4" s="131"/>
-      <c r="DV4" s="131"/>
-      <c r="DW4" s="131"/>
-      <c r="DX4" s="131"/>
-      <c r="DY4" s="132"/>
-      <c r="DZ4" s="130" t="str">
+      <c r="DT4" s="129"/>
+      <c r="DU4" s="129"/>
+      <c r="DV4" s="129"/>
+      <c r="DW4" s="129"/>
+      <c r="DX4" s="129"/>
+      <c r="DY4" s="130"/>
+      <c r="DZ4" s="128" t="str">
         <f>"Week "&amp;(DZ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 18</v>
       </c>
-      <c r="EA4" s="131"/>
-      <c r="EB4" s="131"/>
-      <c r="EC4" s="131"/>
-      <c r="ED4" s="131"/>
-      <c r="EE4" s="131"/>
-      <c r="EF4" s="132"/>
-      <c r="EG4" s="130" t="str">
+      <c r="EA4" s="129"/>
+      <c r="EB4" s="129"/>
+      <c r="EC4" s="129"/>
+      <c r="ED4" s="129"/>
+      <c r="EE4" s="129"/>
+      <c r="EF4" s="130"/>
+      <c r="EG4" s="128" t="str">
         <f>"Week "&amp;(EG6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 19</v>
       </c>
-      <c r="EH4" s="131"/>
-      <c r="EI4" s="131"/>
-      <c r="EJ4" s="131"/>
-      <c r="EK4" s="131"/>
-      <c r="EL4" s="131"/>
-      <c r="EM4" s="132"/>
-      <c r="EN4" s="130" t="str">
+      <c r="EH4" s="129"/>
+      <c r="EI4" s="129"/>
+      <c r="EJ4" s="129"/>
+      <c r="EK4" s="129"/>
+      <c r="EL4" s="129"/>
+      <c r="EM4" s="130"/>
+      <c r="EN4" s="128" t="str">
         <f>"Week "&amp;(EN6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 20</v>
       </c>
-      <c r="EO4" s="131"/>
-      <c r="EP4" s="131"/>
-      <c r="EQ4" s="131"/>
-      <c r="ER4" s="131"/>
-      <c r="ES4" s="131"/>
-      <c r="ET4" s="132"/>
-      <c r="EU4" s="130" t="str">
+      <c r="EO4" s="129"/>
+      <c r="EP4" s="129"/>
+      <c r="EQ4" s="129"/>
+      <c r="ER4" s="129"/>
+      <c r="ES4" s="129"/>
+      <c r="ET4" s="130"/>
+      <c r="EU4" s="128" t="str">
         <f>"Week "&amp;(EU6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 21</v>
       </c>
-      <c r="EV4" s="131"/>
-      <c r="EW4" s="131"/>
-      <c r="EX4" s="131"/>
-      <c r="EY4" s="131"/>
-      <c r="EZ4" s="131"/>
-      <c r="FA4" s="132"/>
-      <c r="FB4" s="130" t="str">
+      <c r="EV4" s="129"/>
+      <c r="EW4" s="129"/>
+      <c r="EX4" s="129"/>
+      <c r="EY4" s="129"/>
+      <c r="EZ4" s="129"/>
+      <c r="FA4" s="130"/>
+      <c r="FB4" s="128" t="str">
         <f>"Week "&amp;(FB6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 22</v>
       </c>
-      <c r="FC4" s="131"/>
-      <c r="FD4" s="131"/>
-      <c r="FE4" s="131"/>
-      <c r="FF4" s="131"/>
-      <c r="FG4" s="131"/>
-      <c r="FH4" s="132"/>
-      <c r="FI4" s="130" t="str">
+      <c r="FC4" s="129"/>
+      <c r="FD4" s="129"/>
+      <c r="FE4" s="129"/>
+      <c r="FF4" s="129"/>
+      <c r="FG4" s="129"/>
+      <c r="FH4" s="130"/>
+      <c r="FI4" s="128" t="str">
         <f>"Week "&amp;(FI6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 23</v>
       </c>
-      <c r="FJ4" s="131"/>
-      <c r="FK4" s="131"/>
-      <c r="FL4" s="131"/>
-      <c r="FM4" s="131"/>
-      <c r="FN4" s="131"/>
-      <c r="FO4" s="132"/>
-      <c r="FP4" s="130" t="str">
+      <c r="FJ4" s="129"/>
+      <c r="FK4" s="129"/>
+      <c r="FL4" s="129"/>
+      <c r="FM4" s="129"/>
+      <c r="FN4" s="129"/>
+      <c r="FO4" s="130"/>
+      <c r="FP4" s="128" t="str">
         <f>"Week "&amp;(FP6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 24</v>
       </c>
-      <c r="FQ4" s="131"/>
-      <c r="FR4" s="131"/>
-      <c r="FS4" s="131"/>
-      <c r="FT4" s="131"/>
-      <c r="FU4" s="131"/>
-      <c r="FV4" s="132"/>
-      <c r="FW4" s="130" t="str">
+      <c r="FQ4" s="129"/>
+      <c r="FR4" s="129"/>
+      <c r="FS4" s="129"/>
+      <c r="FT4" s="129"/>
+      <c r="FU4" s="129"/>
+      <c r="FV4" s="130"/>
+      <c r="FW4" s="128" t="str">
         <f>"Week "&amp;(FW6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 25</v>
       </c>
-      <c r="FX4" s="131"/>
-      <c r="FY4" s="131"/>
-      <c r="FZ4" s="131"/>
-      <c r="GA4" s="131"/>
-      <c r="GB4" s="131"/>
-      <c r="GC4" s="132"/>
-      <c r="GD4" s="130" t="str">
+      <c r="FX4" s="129"/>
+      <c r="FY4" s="129"/>
+      <c r="FZ4" s="129"/>
+      <c r="GA4" s="129"/>
+      <c r="GB4" s="129"/>
+      <c r="GC4" s="130"/>
+      <c r="GD4" s="128" t="str">
         <f>"Week "&amp;(GD6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 26</v>
       </c>
-      <c r="GE4" s="131"/>
-      <c r="GF4" s="131"/>
-      <c r="GG4" s="131"/>
-      <c r="GH4" s="131"/>
-      <c r="GI4" s="131"/>
-      <c r="GJ4" s="132"/>
-      <c r="GK4" s="130" t="str">
+      <c r="GE4" s="129"/>
+      <c r="GF4" s="129"/>
+      <c r="GG4" s="129"/>
+      <c r="GH4" s="129"/>
+      <c r="GI4" s="129"/>
+      <c r="GJ4" s="130"/>
+      <c r="GK4" s="128" t="str">
         <f>"Week "&amp;(GK6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 27</v>
       </c>
-      <c r="GL4" s="131"/>
-      <c r="GM4" s="131"/>
-      <c r="GN4" s="131"/>
-      <c r="GO4" s="131"/>
-      <c r="GP4" s="131"/>
-      <c r="GQ4" s="132"/>
-      <c r="GR4" s="130" t="str">
+      <c r="GL4" s="129"/>
+      <c r="GM4" s="129"/>
+      <c r="GN4" s="129"/>
+      <c r="GO4" s="129"/>
+      <c r="GP4" s="129"/>
+      <c r="GQ4" s="130"/>
+      <c r="GR4" s="128" t="str">
         <f>"Week "&amp;(GR6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 28</v>
       </c>
-      <c r="GS4" s="131"/>
-      <c r="GT4" s="131"/>
-      <c r="GU4" s="131"/>
-      <c r="GV4" s="131"/>
-      <c r="GW4" s="131"/>
-      <c r="GX4" s="132"/>
-      <c r="GY4" s="130" t="str">
+      <c r="GS4" s="129"/>
+      <c r="GT4" s="129"/>
+      <c r="GU4" s="129"/>
+      <c r="GV4" s="129"/>
+      <c r="GW4" s="129"/>
+      <c r="GX4" s="130"/>
+      <c r="GY4" s="128" t="str">
         <f>"Week "&amp;(GY6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 29</v>
       </c>
-      <c r="GZ4" s="131"/>
-      <c r="HA4" s="131"/>
-      <c r="HB4" s="131"/>
-      <c r="HC4" s="131"/>
-      <c r="HD4" s="131"/>
-      <c r="HE4" s="132"/>
+      <c r="GZ4" s="129"/>
+      <c r="HA4" s="129"/>
+      <c r="HB4" s="129"/>
+      <c r="HC4" s="129"/>
+      <c r="HD4" s="129"/>
+      <c r="HE4" s="130"/>
     </row>
     <row r="5" spans="1:213" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="81"/>
       <c r="B5" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="129" t="s">
+      <c r="C5" s="135" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
       <c r="F5" s="81"/>
       <c r="G5" s="81"/>
       <c r="H5" s="81"/>
       <c r="I5" s="81"/>
       <c r="J5" s="31"/>
-      <c r="K5" s="134">
+      <c r="K5" s="131">
         <f>K6</f>
         <v>44956</v>
       </c>
-      <c r="L5" s="135"/>
-      <c r="M5" s="135"/>
-      <c r="N5" s="135"/>
-      <c r="O5" s="135"/>
-      <c r="P5" s="135"/>
-      <c r="Q5" s="136"/>
-      <c r="R5" s="134">
+      <c r="L5" s="132"/>
+      <c r="M5" s="132"/>
+      <c r="N5" s="132"/>
+      <c r="O5" s="132"/>
+      <c r="P5" s="132"/>
+      <c r="Q5" s="133"/>
+      <c r="R5" s="131">
         <f>R6</f>
         <v>44963</v>
       </c>
-      <c r="S5" s="135"/>
-      <c r="T5" s="135"/>
-      <c r="U5" s="135"/>
-      <c r="V5" s="135"/>
-      <c r="W5" s="135"/>
-      <c r="X5" s="136"/>
-      <c r="Y5" s="134">
+      <c r="S5" s="132"/>
+      <c r="T5" s="132"/>
+      <c r="U5" s="132"/>
+      <c r="V5" s="132"/>
+      <c r="W5" s="132"/>
+      <c r="X5" s="133"/>
+      <c r="Y5" s="131">
         <f>Y6</f>
         <v>44970</v>
       </c>
-      <c r="Z5" s="135"/>
-      <c r="AA5" s="135"/>
-      <c r="AB5" s="135"/>
-      <c r="AC5" s="135"/>
-      <c r="AD5" s="135"/>
-      <c r="AE5" s="136"/>
-      <c r="AF5" s="134">
+      <c r="Z5" s="132"/>
+      <c r="AA5" s="132"/>
+      <c r="AB5" s="132"/>
+      <c r="AC5" s="132"/>
+      <c r="AD5" s="132"/>
+      <c r="AE5" s="133"/>
+      <c r="AF5" s="131">
         <f>AF6</f>
         <v>44977</v>
       </c>
-      <c r="AG5" s="135"/>
-      <c r="AH5" s="135"/>
-      <c r="AI5" s="135"/>
-      <c r="AJ5" s="135"/>
-      <c r="AK5" s="135"/>
-      <c r="AL5" s="136"/>
-      <c r="AM5" s="134">
+      <c r="AG5" s="132"/>
+      <c r="AH5" s="132"/>
+      <c r="AI5" s="132"/>
+      <c r="AJ5" s="132"/>
+      <c r="AK5" s="132"/>
+      <c r="AL5" s="133"/>
+      <c r="AM5" s="131">
         <f>AM6</f>
         <v>44984</v>
       </c>
-      <c r="AN5" s="135"/>
-      <c r="AO5" s="135"/>
-      <c r="AP5" s="135"/>
-      <c r="AQ5" s="135"/>
-      <c r="AR5" s="135"/>
-      <c r="AS5" s="136"/>
-      <c r="AT5" s="134">
+      <c r="AN5" s="132"/>
+      <c r="AO5" s="132"/>
+      <c r="AP5" s="132"/>
+      <c r="AQ5" s="132"/>
+      <c r="AR5" s="132"/>
+      <c r="AS5" s="133"/>
+      <c r="AT5" s="131">
         <f>AT6</f>
         <v>44991</v>
       </c>
-      <c r="AU5" s="135"/>
-      <c r="AV5" s="135"/>
-      <c r="AW5" s="135"/>
-      <c r="AX5" s="135"/>
-      <c r="AY5" s="135"/>
-      <c r="AZ5" s="136"/>
-      <c r="BA5" s="134">
+      <c r="AU5" s="132"/>
+      <c r="AV5" s="132"/>
+      <c r="AW5" s="132"/>
+      <c r="AX5" s="132"/>
+      <c r="AY5" s="132"/>
+      <c r="AZ5" s="133"/>
+      <c r="BA5" s="131">
         <f>BA6</f>
         <v>44998</v>
       </c>
-      <c r="BB5" s="135"/>
-      <c r="BC5" s="135"/>
-      <c r="BD5" s="135"/>
-      <c r="BE5" s="135"/>
-      <c r="BF5" s="135"/>
-      <c r="BG5" s="136"/>
-      <c r="BH5" s="134">
+      <c r="BB5" s="132"/>
+      <c r="BC5" s="132"/>
+      <c r="BD5" s="132"/>
+      <c r="BE5" s="132"/>
+      <c r="BF5" s="132"/>
+      <c r="BG5" s="133"/>
+      <c r="BH5" s="131">
         <f>BH6</f>
         <v>45005</v>
       </c>
-      <c r="BI5" s="135"/>
-      <c r="BJ5" s="135"/>
-      <c r="BK5" s="135"/>
-      <c r="BL5" s="135"/>
-      <c r="BM5" s="135"/>
-      <c r="BN5" s="136"/>
-      <c r="BO5" s="134">
+      <c r="BI5" s="132"/>
+      <c r="BJ5" s="132"/>
+      <c r="BK5" s="132"/>
+      <c r="BL5" s="132"/>
+      <c r="BM5" s="132"/>
+      <c r="BN5" s="133"/>
+      <c r="BO5" s="131">
         <f>BO6</f>
         <v>45012</v>
       </c>
-      <c r="BP5" s="135"/>
-      <c r="BQ5" s="135"/>
-      <c r="BR5" s="135"/>
-      <c r="BS5" s="135"/>
-      <c r="BT5" s="135"/>
-      <c r="BU5" s="136"/>
-      <c r="BV5" s="134">
+      <c r="BP5" s="132"/>
+      <c r="BQ5" s="132"/>
+      <c r="BR5" s="132"/>
+      <c r="BS5" s="132"/>
+      <c r="BT5" s="132"/>
+      <c r="BU5" s="133"/>
+      <c r="BV5" s="131">
         <f>BV6</f>
         <v>45019</v>
       </c>
-      <c r="BW5" s="135"/>
-      <c r="BX5" s="135"/>
-      <c r="BY5" s="135"/>
-      <c r="BZ5" s="135"/>
-      <c r="CA5" s="135"/>
-      <c r="CB5" s="136"/>
-      <c r="CC5" s="134">
+      <c r="BW5" s="132"/>
+      <c r="BX5" s="132"/>
+      <c r="BY5" s="132"/>
+      <c r="BZ5" s="132"/>
+      <c r="CA5" s="132"/>
+      <c r="CB5" s="133"/>
+      <c r="CC5" s="131">
         <f>CC6</f>
         <v>45026</v>
       </c>
-      <c r="CD5" s="135"/>
-      <c r="CE5" s="135"/>
-      <c r="CF5" s="135"/>
-      <c r="CG5" s="135"/>
-      <c r="CH5" s="135"/>
-      <c r="CI5" s="136"/>
-      <c r="CJ5" s="134">
+      <c r="CD5" s="132"/>
+      <c r="CE5" s="132"/>
+      <c r="CF5" s="132"/>
+      <c r="CG5" s="132"/>
+      <c r="CH5" s="132"/>
+      <c r="CI5" s="133"/>
+      <c r="CJ5" s="131">
         <f>CJ6</f>
         <v>45033</v>
       </c>
-      <c r="CK5" s="135"/>
-      <c r="CL5" s="135"/>
-      <c r="CM5" s="135"/>
-      <c r="CN5" s="135"/>
-      <c r="CO5" s="135"/>
-      <c r="CP5" s="136"/>
-      <c r="CQ5" s="134">
+      <c r="CK5" s="132"/>
+      <c r="CL5" s="132"/>
+      <c r="CM5" s="132"/>
+      <c r="CN5" s="132"/>
+      <c r="CO5" s="132"/>
+      <c r="CP5" s="133"/>
+      <c r="CQ5" s="131">
         <f>CQ6</f>
         <v>45040</v>
       </c>
-      <c r="CR5" s="135"/>
-      <c r="CS5" s="135"/>
-      <c r="CT5" s="135"/>
-      <c r="CU5" s="135"/>
-      <c r="CV5" s="135"/>
-      <c r="CW5" s="136"/>
-      <c r="CX5" s="134">
+      <c r="CR5" s="132"/>
+      <c r="CS5" s="132"/>
+      <c r="CT5" s="132"/>
+      <c r="CU5" s="132"/>
+      <c r="CV5" s="132"/>
+      <c r="CW5" s="133"/>
+      <c r="CX5" s="131">
         <f>CX6</f>
         <v>45047</v>
       </c>
-      <c r="CY5" s="135"/>
-      <c r="CZ5" s="135"/>
-      <c r="DA5" s="135"/>
-      <c r="DB5" s="135"/>
-      <c r="DC5" s="135"/>
-      <c r="DD5" s="136"/>
-      <c r="DE5" s="134">
+      <c r="CY5" s="132"/>
+      <c r="CZ5" s="132"/>
+      <c r="DA5" s="132"/>
+      <c r="DB5" s="132"/>
+      <c r="DC5" s="132"/>
+      <c r="DD5" s="133"/>
+      <c r="DE5" s="131">
         <f>DE6</f>
         <v>45054</v>
       </c>
-      <c r="DF5" s="135"/>
-      <c r="DG5" s="135"/>
-      <c r="DH5" s="135"/>
-      <c r="DI5" s="135"/>
-      <c r="DJ5" s="135"/>
-      <c r="DK5" s="136"/>
-      <c r="DL5" s="134">
+      <c r="DF5" s="132"/>
+      <c r="DG5" s="132"/>
+      <c r="DH5" s="132"/>
+      <c r="DI5" s="132"/>
+      <c r="DJ5" s="132"/>
+      <c r="DK5" s="133"/>
+      <c r="DL5" s="131">
         <f>DL6</f>
         <v>45061</v>
       </c>
-      <c r="DM5" s="135"/>
-      <c r="DN5" s="135"/>
-      <c r="DO5" s="135"/>
-      <c r="DP5" s="135"/>
-      <c r="DQ5" s="135"/>
-      <c r="DR5" s="136"/>
-      <c r="DS5" s="134">
+      <c r="DM5" s="132"/>
+      <c r="DN5" s="132"/>
+      <c r="DO5" s="132"/>
+      <c r="DP5" s="132"/>
+      <c r="DQ5" s="132"/>
+      <c r="DR5" s="133"/>
+      <c r="DS5" s="131">
         <f>DS6</f>
         <v>45068</v>
       </c>
-      <c r="DT5" s="135"/>
-      <c r="DU5" s="135"/>
-      <c r="DV5" s="135"/>
-      <c r="DW5" s="135"/>
-      <c r="DX5" s="135"/>
-      <c r="DY5" s="136"/>
-      <c r="DZ5" s="134">
+      <c r="DT5" s="132"/>
+      <c r="DU5" s="132"/>
+      <c r="DV5" s="132"/>
+      <c r="DW5" s="132"/>
+      <c r="DX5" s="132"/>
+      <c r="DY5" s="133"/>
+      <c r="DZ5" s="131">
         <f>DZ6</f>
         <v>45075</v>
       </c>
-      <c r="EA5" s="135"/>
-      <c r="EB5" s="135"/>
-      <c r="EC5" s="135"/>
-      <c r="ED5" s="135"/>
-      <c r="EE5" s="135"/>
-      <c r="EF5" s="136"/>
-      <c r="EG5" s="134">
+      <c r="EA5" s="132"/>
+      <c r="EB5" s="132"/>
+      <c r="EC5" s="132"/>
+      <c r="ED5" s="132"/>
+      <c r="EE5" s="132"/>
+      <c r="EF5" s="133"/>
+      <c r="EG5" s="131">
         <f>EG6</f>
         <v>45082</v>
       </c>
-      <c r="EH5" s="135"/>
-      <c r="EI5" s="135"/>
-      <c r="EJ5" s="135"/>
-      <c r="EK5" s="135"/>
-      <c r="EL5" s="135"/>
-      <c r="EM5" s="136"/>
-      <c r="EN5" s="134">
+      <c r="EH5" s="132"/>
+      <c r="EI5" s="132"/>
+      <c r="EJ5" s="132"/>
+      <c r="EK5" s="132"/>
+      <c r="EL5" s="132"/>
+      <c r="EM5" s="133"/>
+      <c r="EN5" s="131">
         <f>EN6</f>
         <v>45089</v>
       </c>
-      <c r="EO5" s="135"/>
-      <c r="EP5" s="135"/>
-      <c r="EQ5" s="135"/>
-      <c r="ER5" s="135"/>
-      <c r="ES5" s="135"/>
-      <c r="ET5" s="136"/>
-      <c r="EU5" s="134">
+      <c r="EO5" s="132"/>
+      <c r="EP5" s="132"/>
+      <c r="EQ5" s="132"/>
+      <c r="ER5" s="132"/>
+      <c r="ES5" s="132"/>
+      <c r="ET5" s="133"/>
+      <c r="EU5" s="131">
         <f>EU6</f>
         <v>45096</v>
       </c>
-      <c r="EV5" s="135"/>
-      <c r="EW5" s="135"/>
-      <c r="EX5" s="135"/>
-      <c r="EY5" s="135"/>
-      <c r="EZ5" s="135"/>
-      <c r="FA5" s="136"/>
-      <c r="FB5" s="134">
+      <c r="EV5" s="132"/>
+      <c r="EW5" s="132"/>
+      <c r="EX5" s="132"/>
+      <c r="EY5" s="132"/>
+      <c r="EZ5" s="132"/>
+      <c r="FA5" s="133"/>
+      <c r="FB5" s="131">
         <f>FB6</f>
         <v>45103</v>
       </c>
-      <c r="FC5" s="135"/>
-      <c r="FD5" s="135"/>
-      <c r="FE5" s="135"/>
-      <c r="FF5" s="135"/>
-      <c r="FG5" s="135"/>
-      <c r="FH5" s="136"/>
-      <c r="FI5" s="134">
+      <c r="FC5" s="132"/>
+      <c r="FD5" s="132"/>
+      <c r="FE5" s="132"/>
+      <c r="FF5" s="132"/>
+      <c r="FG5" s="132"/>
+      <c r="FH5" s="133"/>
+      <c r="FI5" s="131">
         <f>FI6</f>
         <v>45110</v>
       </c>
-      <c r="FJ5" s="135"/>
-      <c r="FK5" s="135"/>
-      <c r="FL5" s="135"/>
-      <c r="FM5" s="135"/>
-      <c r="FN5" s="135"/>
-      <c r="FO5" s="136"/>
-      <c r="FP5" s="134">
+      <c r="FJ5" s="132"/>
+      <c r="FK5" s="132"/>
+      <c r="FL5" s="132"/>
+      <c r="FM5" s="132"/>
+      <c r="FN5" s="132"/>
+      <c r="FO5" s="133"/>
+      <c r="FP5" s="131">
         <f>FP6</f>
         <v>45117</v>
       </c>
-      <c r="FQ5" s="135"/>
-      <c r="FR5" s="135"/>
-      <c r="FS5" s="135"/>
-      <c r="FT5" s="135"/>
-      <c r="FU5" s="135"/>
-      <c r="FV5" s="136"/>
-      <c r="FW5" s="134">
+      <c r="FQ5" s="132"/>
+      <c r="FR5" s="132"/>
+      <c r="FS5" s="132"/>
+      <c r="FT5" s="132"/>
+      <c r="FU5" s="132"/>
+      <c r="FV5" s="133"/>
+      <c r="FW5" s="131">
         <f>FW6</f>
         <v>45124</v>
       </c>
-      <c r="FX5" s="135"/>
-      <c r="FY5" s="135"/>
-      <c r="FZ5" s="135"/>
-      <c r="GA5" s="135"/>
-      <c r="GB5" s="135"/>
-      <c r="GC5" s="136"/>
-      <c r="GD5" s="134">
+      <c r="FX5" s="132"/>
+      <c r="FY5" s="132"/>
+      <c r="FZ5" s="132"/>
+      <c r="GA5" s="132"/>
+      <c r="GB5" s="132"/>
+      <c r="GC5" s="133"/>
+      <c r="GD5" s="131">
         <f>GD6</f>
         <v>45131</v>
       </c>
-      <c r="GE5" s="135"/>
-      <c r="GF5" s="135"/>
-      <c r="GG5" s="135"/>
-      <c r="GH5" s="135"/>
-      <c r="GI5" s="135"/>
-      <c r="GJ5" s="136"/>
-      <c r="GK5" s="134">
+      <c r="GE5" s="132"/>
+      <c r="GF5" s="132"/>
+      <c r="GG5" s="132"/>
+      <c r="GH5" s="132"/>
+      <c r="GI5" s="132"/>
+      <c r="GJ5" s="133"/>
+      <c r="GK5" s="131">
         <f>GK6</f>
         <v>45138</v>
       </c>
-      <c r="GL5" s="135"/>
-      <c r="GM5" s="135"/>
-      <c r="GN5" s="135"/>
-      <c r="GO5" s="135"/>
-      <c r="GP5" s="135"/>
-      <c r="GQ5" s="136"/>
-      <c r="GR5" s="134">
+      <c r="GL5" s="132"/>
+      <c r="GM5" s="132"/>
+      <c r="GN5" s="132"/>
+      <c r="GO5" s="132"/>
+      <c r="GP5" s="132"/>
+      <c r="GQ5" s="133"/>
+      <c r="GR5" s="131">
         <f>GR6</f>
         <v>45145</v>
       </c>
-      <c r="GS5" s="135"/>
-      <c r="GT5" s="135"/>
-      <c r="GU5" s="135"/>
-      <c r="GV5" s="135"/>
-      <c r="GW5" s="135"/>
-      <c r="GX5" s="136"/>
-      <c r="GY5" s="134">
+      <c r="GS5" s="132"/>
+      <c r="GT5" s="132"/>
+      <c r="GU5" s="132"/>
+      <c r="GV5" s="132"/>
+      <c r="GW5" s="132"/>
+      <c r="GX5" s="133"/>
+      <c r="GY5" s="131">
         <f>GY6</f>
         <v>45152</v>
       </c>
-      <c r="GZ5" s="135"/>
-      <c r="HA5" s="135"/>
-      <c r="HB5" s="135"/>
-      <c r="HC5" s="135"/>
-      <c r="HD5" s="135"/>
-      <c r="HE5" s="136"/>
+      <c r="GZ5" s="132"/>
+      <c r="HA5" s="132"/>
+      <c r="HB5" s="132"/>
+      <c r="HC5" s="132"/>
+      <c r="HD5" s="132"/>
+      <c r="HE5" s="133"/>
     </row>
     <row r="6" spans="1:213" x14ac:dyDescent="0.2">
       <c r="A6" s="31"/>
@@ -20972,32 +20907,25 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="61">
-    <mergeCell ref="GR4:GX4"/>
-    <mergeCell ref="GR5:GX5"/>
-    <mergeCell ref="GY4:HE4"/>
-    <mergeCell ref="GY5:HE5"/>
-    <mergeCell ref="GD4:GJ4"/>
-    <mergeCell ref="GD5:GJ5"/>
-    <mergeCell ref="GK4:GQ4"/>
-    <mergeCell ref="GK5:GQ5"/>
-    <mergeCell ref="FI4:FO4"/>
-    <mergeCell ref="FI5:FO5"/>
-    <mergeCell ref="FP4:FV4"/>
-    <mergeCell ref="FP5:FV5"/>
-    <mergeCell ref="FW4:GC4"/>
-    <mergeCell ref="FW5:GC5"/>
-    <mergeCell ref="EN4:ET4"/>
-    <mergeCell ref="EN5:ET5"/>
-    <mergeCell ref="EU4:FA4"/>
-    <mergeCell ref="EU5:FA5"/>
-    <mergeCell ref="FB4:FH4"/>
-    <mergeCell ref="FB5:FH5"/>
-    <mergeCell ref="DS4:DY4"/>
-    <mergeCell ref="DS5:DY5"/>
-    <mergeCell ref="DZ4:EF4"/>
-    <mergeCell ref="DZ5:EF5"/>
-    <mergeCell ref="EG4:EM4"/>
-    <mergeCell ref="EG5:EM5"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="AF4:AL4"/>
+    <mergeCell ref="AF5:AL5"/>
+    <mergeCell ref="BH4:BN4"/>
+    <mergeCell ref="BH5:BN5"/>
+    <mergeCell ref="AM5:AS5"/>
+    <mergeCell ref="AT4:AZ4"/>
+    <mergeCell ref="AT5:AZ5"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BA5:BG5"/>
     <mergeCell ref="CX4:DD4"/>
     <mergeCell ref="DE4:DK4"/>
     <mergeCell ref="DL4:DR4"/>
@@ -21014,25 +20942,32 @@
     <mergeCell ref="CC4:CI4"/>
     <mergeCell ref="CJ4:CP4"/>
     <mergeCell ref="CQ4:CW4"/>
-    <mergeCell ref="AF4:AL4"/>
-    <mergeCell ref="AF5:AL5"/>
-    <mergeCell ref="BH4:BN4"/>
-    <mergeCell ref="BH5:BN5"/>
-    <mergeCell ref="AM5:AS5"/>
-    <mergeCell ref="AT4:AZ4"/>
-    <mergeCell ref="AT5:AZ5"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="DS4:DY4"/>
+    <mergeCell ref="DS5:DY5"/>
+    <mergeCell ref="DZ4:EF4"/>
+    <mergeCell ref="DZ5:EF5"/>
+    <mergeCell ref="EG4:EM4"/>
+    <mergeCell ref="EG5:EM5"/>
+    <mergeCell ref="EN4:ET4"/>
+    <mergeCell ref="EN5:ET5"/>
+    <mergeCell ref="EU4:FA4"/>
+    <mergeCell ref="EU5:FA5"/>
+    <mergeCell ref="FB4:FH4"/>
+    <mergeCell ref="FB5:FH5"/>
+    <mergeCell ref="FI4:FO4"/>
+    <mergeCell ref="FI5:FO5"/>
+    <mergeCell ref="FP4:FV4"/>
+    <mergeCell ref="FP5:FV5"/>
+    <mergeCell ref="FW4:GC4"/>
+    <mergeCell ref="FW5:GC5"/>
+    <mergeCell ref="GR4:GX4"/>
+    <mergeCell ref="GR5:GX5"/>
+    <mergeCell ref="GY4:HE4"/>
+    <mergeCell ref="GY5:HE5"/>
+    <mergeCell ref="GD4:GJ4"/>
+    <mergeCell ref="GD5:GJ5"/>
+    <mergeCell ref="GK4:GQ4"/>
+    <mergeCell ref="GK5:GQ5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H8:H53">
@@ -23569,77 +23504,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86BD796D-7536-42DD-AAD3-49FD54BB2083}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B1" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B2">
-        <v>89</v>
-      </c>
-      <c r="C2">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B3">
-        <v>18</v>
-      </c>
-      <c r="C3">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B4">
-        <v>22</v>
-      </c>
-      <c r="C4">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B5">
-        <v>21</v>
-      </c>
-      <c r="C5">
-        <v>485</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="71" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -23834,7 +23698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C94"/>
@@ -24355,7 +24219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C29"/>
   <sheetViews>
@@ -24546,18 +24410,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -24739,18 +24603,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DFCE3F4-85E3-45BA-B91D-2546E16A41BD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D952698-E22D-4C85-A2E2-034AC6F6FCA5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D952698-E22D-4C85-A2E2-034AC6F6FCA5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DFCE3F4-85E3-45BA-B91D-2546E16A41BD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
